--- a/Anton Test/1065_Calculation/Final.xlsx
+++ b/Anton Test/1065_Calculation/Final.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+  <si>
+    <t>Final Emissions</t>
+  </si>
   <si>
     <t>Species</t>
   </si>
@@ -34,7 +37,7 @@
     <t>DF</t>
   </si>
   <si>
-    <t>FINAL_Em</t>
+    <t>FINAL Em.</t>
   </si>
   <si>
     <t>Regulation</t>
@@ -61,47 +64,34 @@
     <t>-</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Emissions Mass</t>
+  </si>
+  <si>
+    <t>Cold Start</t>
+  </si>
+  <si>
+    <t>Hot Start</t>
+  </si>
+  <si>
+    <t>Drift corrected Emissions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,6 +105,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -122,15 +113,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC71585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF696969"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6347"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,14 +153,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,229 +478,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>757.343</v>
+      </c>
+      <c r="D3" s="5">
+        <v>753.071</v>
+      </c>
+      <c r="E3" s="5">
+        <v>753.681</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>753.681</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5">
+        <v>15233.6930915101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.334</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.288</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8.295</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="G4" s="5">
+        <v>12.691</v>
+      </c>
+      <c r="H4" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="J4" s="5">
+        <v>167.640660071284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.198</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.071</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.089</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.268</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.292</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3.99266433528807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.317</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.134</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.134</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5">
+        <v>6.38331247191475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>757.342897799561</v>
-      </c>
-      <c r="D2">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.271</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.057</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.088</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.961</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.172</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5.44942362114541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>757.343</v>
+      </c>
+      <c r="D12" s="5">
         <v>753.071</v>
       </c>
-      <c r="E2">
-        <v>753.681271114223</v>
-      </c>
-      <c r="F2">
+      <c r="E12" s="5">
+        <v>753.681</v>
+      </c>
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G12" s="5">
+        <v>753.681</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="J12" s="5">
+        <v>15233.6930915101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8.334</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8.288</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8.295</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="G13" s="5">
+        <v>12.691</v>
+      </c>
+      <c r="H13" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="J13" s="5">
+        <v>167.640410407617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.198</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.071</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.089</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3.268</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.291</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3.97937894640643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.317</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.134</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.134</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="5">
+        <v>6.38331247191475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>8.33425371804125</v>
-      </c>
-      <c r="D3">
-        <v>8.288</v>
-      </c>
-      <c r="E3">
-        <v>8.29460767400589</v>
-      </c>
-      <c r="F3">
-        <v>1.53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0.198495267002144</v>
-      </c>
-      <c r="D4">
-        <v>0.071</v>
-      </c>
-      <c r="E4">
-        <v>0.0892136095717349</v>
-      </c>
-      <c r="F4">
-        <v>3.268</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>0.317346314908643</v>
-      </c>
-      <c r="D5">
-        <v>0.104</v>
-      </c>
-      <c r="E5">
-        <v>0.134478044986949</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>0.270918040148498</v>
-      </c>
-      <c r="D6">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.271</v>
+      </c>
+      <c r="D16" s="5">
         <v>0.057</v>
       </c>
-      <c r="E6">
-        <v>0.087559720021214</v>
-      </c>
-      <c r="F6">
+      <c r="E16" s="5">
+        <v>0.088</v>
+      </c>
+      <c r="F16" s="5">
         <v>1.961</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6">
+      <c r="G16" s="6">
+        <v>0.172</v>
+      </c>
+      <c r="H16" s="4">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" t="s">
-        <v>15</v>
+      <c r="J16" s="5">
+        <v>5.44536063073934</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="J10:K10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Anton Test/1065_Calculation/Final.xlsx
+++ b/Anton Test/1065_Calculation/Final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
   <si>
     <t>Final Emissions</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Drift corrected Emissions</t>
+  </si>
+  <si>
+    <t>Drift uncorrected emissions</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6347"/>
+        <fgColor rgb="FFFFA62F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,16 +797,16 @@
         <v>0.198</v>
       </c>
       <c r="D14" s="5">
-        <v>0.071</v>
+        <v>0.07</v>
       </c>
       <c r="E14" s="5">
-        <v>0.089</v>
+        <v>0.088</v>
       </c>
       <c r="F14" s="5">
         <v>3.268</v>
       </c>
       <c r="G14" s="6">
-        <v>0.291</v>
+        <v>0.288</v>
       </c>
       <c r="H14" s="4">
         <v>0.2</v>
@@ -870,12 +873,207 @@
         <v>5.44536063073934</v>
       </c>
     </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="J19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5">
+        <v>754.462</v>
+      </c>
+      <c r="D21" s="5">
+        <v>750.206</v>
+      </c>
+      <c r="E21" s="5">
+        <v>750.814</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>750.814</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="5">
+        <v>15175.7400158928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8.347</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8.307</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="G22" s="5">
+        <v>12.709</v>
+      </c>
+      <c r="H22" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="J22" s="5">
+        <v>167.89986736557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.073</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.091</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3.268</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.298</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>4.03174654257934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.319</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.135</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.135</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="5">
+        <v>6.4206272155961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.054</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.085</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1.961</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.166</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="J25" s="5">
+        <v>5.42315340991843</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Anton Test/1065_Calculation/Final.xlsx
+++ b/Anton Test/1065_Calculation/Final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
   <si>
     <t>Final Emissions</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>DF</t>
   </si>
   <si>
     <t>FINAL Em.</t>
@@ -499,7 +496,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -525,22 +522,19 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5">
         <v>757.343</v>
@@ -558,7 +552,7 @@
         <v>753.681</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="5">
         <v>15233.6930915101</v>
@@ -566,10 +560,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>8.334</v>
@@ -595,10 +589,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
         <v>0.198</v>
@@ -624,10 +618,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5">
         <v>0.317</v>
@@ -645,7 +639,7 @@
         <v>0.134</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="5">
         <v>6.38331247191475</v>
@@ -653,10 +647,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>0.271</v>
@@ -682,7 +676,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -692,7 +686,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="J10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -718,22 +712,19 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5">
         <v>757.343</v>
@@ -751,7 +742,7 @@
         <v>753.681</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="5">
         <v>15233.6930915101</v>
@@ -759,10 +750,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5">
         <v>8.334</v>
@@ -788,10 +779,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
         <v>0.198</v>
@@ -817,10 +808,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
         <v>0.317</v>
@@ -838,7 +829,7 @@
         <v>0.134</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="5">
         <v>6.38331247191475</v>
@@ -846,10 +837,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5">
         <v>0.271</v>
@@ -875,7 +866,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -885,7 +876,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="J19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -911,22 +902,19 @@
       <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5">
         <v>754.462</v>
@@ -944,7 +932,7 @@
         <v>750.814</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" s="5">
         <v>15175.7400158928</v>
@@ -952,10 +940,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5">
         <v>8.347</v>
@@ -981,10 +969,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="5">
         <v>0.2</v>
@@ -1010,10 +998,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="5">
         <v>0.319</v>
@@ -1031,7 +1019,7 @@
         <v>0.135</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" s="5">
         <v>6.4206272155961</v>
@@ -1039,10 +1027,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5">
         <v>0.27</v>

--- a/Anton Test/1065_Calculation/Final.xlsx
+++ b/Anton Test/1065_Calculation/Final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
   <si>
     <t>Final Emissions</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>DF</t>
   </si>
   <si>
     <t>FINAL Em.</t>
@@ -496,7 +499,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -522,19 +525,22 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
         <v>757.343</v>
@@ -552,7 +558,7 @@
         <v>753.681</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" s="5">
         <v>15233.6930915101</v>
@@ -560,10 +566,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>8.334</v>
@@ -589,10 +595,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>0.198</v>
@@ -618,10 +624,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>0.317</v>
@@ -639,7 +645,7 @@
         <v>0.134</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="5">
         <v>6.38331247191475</v>
@@ -647,10 +653,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5">
         <v>0.271</v>
@@ -676,7 +682,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -686,7 +692,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="J10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -712,19 +718,22 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5">
         <v>757.343</v>
@@ -742,7 +751,7 @@
         <v>753.681</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" s="5">
         <v>15233.6930915101</v>
@@ -750,10 +759,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5">
         <v>8.334</v>
@@ -779,10 +788,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5">
         <v>0.198</v>
@@ -808,10 +817,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5">
         <v>0.317</v>
@@ -829,7 +838,7 @@
         <v>0.134</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" s="5">
         <v>6.38331247191475</v>
@@ -837,10 +846,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <v>0.271</v>
@@ -866,7 +875,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -876,7 +885,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="J19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -902,19 +911,22 @@
       <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5">
         <v>754.462</v>
@@ -932,7 +944,7 @@
         <v>750.814</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" s="5">
         <v>15175.7400158928</v>
@@ -940,10 +952,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5">
         <v>8.347</v>
@@ -969,10 +981,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5">
         <v>0.2</v>
@@ -998,10 +1010,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5">
         <v>0.319</v>
@@ -1019,7 +1031,7 @@
         <v>0.135</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J24" s="5">
         <v>6.4206272155961</v>
@@ -1027,10 +1039,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5">
         <v>0.27</v>
